--- a/TestCaseПивень.xlsx
+++ b/TestCaseПивень.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EgorPiva\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD9ADAE-85FC-44F4-9B6D-E7701B4A7402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D7A017-B76A-4C5B-8715-D7ED675CC52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82F39D10-3413-4186-AC15-FFCCDA7CEF71}"/>
   </bookViews>
@@ -214,7 +214,7 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>При попытке регистрации без пароля или без логина система выводит сообщение "Имя пользователя или пароль не могут быть пустыми", но не указывает причину ("Данный пользователь уже зарегистрирован")
+    <t>При попытке регистрации без пароля или без логина система выводит сообщение "Имя пользователя или пароль не могут быть пустыми", но не указывает причину
 1.Зарегистрировать нового пользователя ( Login : Valera
 					Password:).
 2.Повторить регистрацию с теми же данными.
@@ -1261,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A7F9E96-170F-432E-B44C-F427878EC409}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="73" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1420,7 +1420,7 @@
     </row>
     <row r="11" spans="1:8" ht="17.399999999999999">
       <c r="A11" s="37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>14</v>
@@ -1429,7 +1429,7 @@
         <v>15</v>
       </c>
       <c r="D11" s="39">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E11" s="39">
         <v>2</v>
@@ -1616,13 +1616,12 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="71" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="3" width="29.77734375" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="1" max="4" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54.6" thickBot="1">
